--- a/Data Analisis.xlsx
+++ b/Data Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hait\Documents\Tugas-TRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{766FF5C6-483C-419C-B479-7170180BE80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A200CE0-9B76-43AC-BA72-696D9F0E09AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60FF2B71-CBD7-4B36-B2CD-E820F654C121}"/>
+    <workbookView xWindow="3690" yWindow="1350" windowWidth="15375" windowHeight="7875" xr2:uid="{60FF2B71-CBD7-4B36-B2CD-E820F654C121}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>90 Jam</t>
   </si>
   <si>
-    <t>Tabel Produk dan Batasan Prodksi</t>
-  </si>
-  <si>
     <t>Produk</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Produk C</t>
+  </si>
+  <si>
+    <t>Tabel Produk dan Batasan Produksi</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1877F08-BE25-4E42-85A8-CE67BC9B4564}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,63 +700,63 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,26 +764,26 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9">
         <v>1.4999999999999999E-2</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="9">
         <v>0.01</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9">
         <v>5.0000000000000001E-3</v>
